--- a/Ultra Interior Ltd/38390/24caitcheon/matrix.xlsx
+++ b/Ultra Interior Ltd/38390/24caitcheon/matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\36965\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\38390\24caitcheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC349A02-4E08-4B49-8BF9-48832EFB0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ABC007-16A5-4C52-9763-C5B17B8922D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="840" windowWidth="26775" windowHeight="17700" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="5820" yWindow="1575" windowWidth="26730" windowHeight="17955" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>GIB Stop</t>
-  </si>
-  <si>
-    <t>Metal Grid Ceilings</t>
   </si>
 </sst>
 </file>
@@ -926,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,25 +993,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
